--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,73 +40,67 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>war</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>cut</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -115,9 +109,6 @@
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -148,130 +139,154 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>special</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>save</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -629,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,16 +734,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8082191780821918</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.8407310704960835</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6451612903225806</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.6243386243386243</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.7906976744186046</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6243386243386243</v>
+        <v>0.5949612403100775</v>
       </c>
       <c r="C13">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="D13">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6101694915254238</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5897435897435898</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5736434108527132</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.8125</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5641025641025641</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,37 +1463,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5555555555555556</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>20</v>
       </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5503355704697986</v>
+        <v>0.48</v>
       </c>
       <c r="C19">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5294117647058824</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4545454545454545</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K22">
         <v>0.7037037037037037</v>
@@ -1698,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4545454545454545</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>0.7</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1763,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4464285714285715</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.6615384615384615</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1813,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3555555555555556</v>
+        <v>0.2875</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6588235294117647</v>
+        <v>0.6875</v>
       </c>
       <c r="L25">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>116</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3095238095238095</v>
+        <v>0.2627345844504022</v>
       </c>
       <c r="C26">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D26">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.6382978723404256</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.275</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6237288135593221</v>
+        <v>0.65</v>
       </c>
       <c r="L27">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,38 +1963,38 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2727272727272727</v>
+        <v>0.07849829351535836</v>
       </c>
       <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>270</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L28">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <v>21</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>56</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28">
-        <v>0.6234309623430963</v>
-      </c>
-      <c r="L28">
-        <v>149</v>
-      </c>
-      <c r="M28">
-        <v>149</v>
-      </c>
       <c r="N28">
         <v>1</v>
       </c>
@@ -1990,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,37 +2013,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2546916890080429</v>
+        <v>0.03498542274052478</v>
       </c>
       <c r="C29">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D29">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>278</v>
+        <v>2979</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.62</v>
+        <v>0.6338983050847458</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2040,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,37 +2063,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1566666666666667</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>253</v>
+        <v>1118</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,37 +2113,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06825938566552901</v>
+        <v>0.02165725047080979</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>273</v>
+        <v>2078</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,291 +2163,219 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03409090909090909</v>
+        <v>0.007734450531743474</v>
       </c>
       <c r="C32">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E32">
+        <v>0.8</v>
+      </c>
+      <c r="F32">
         <v>0.2</v>
       </c>
-      <c r="F32">
-        <v>0.8</v>
-      </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2975</v>
+        <v>3079</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L34">
+        <v>49</v>
+      </c>
+      <c r="M34">
+        <v>49</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K32">
-        <v>0.5686274509803921</v>
-      </c>
-      <c r="L32">
-        <v>29</v>
-      </c>
-      <c r="M32">
-        <v>29</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.03367875647668394</v>
-      </c>
-      <c r="C33">
-        <v>39</v>
-      </c>
-      <c r="D33">
-        <v>42</v>
-      </c>
-      <c r="E33">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F33">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1119</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="L33">
-        <v>49</v>
-      </c>
-      <c r="M33">
-        <v>49</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.024</v>
-      </c>
-      <c r="C34">
-        <v>51</v>
-      </c>
-      <c r="D34">
-        <v>69</v>
-      </c>
-      <c r="E34">
-        <v>0.26</v>
-      </c>
-      <c r="F34">
-        <v>0.74</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2074</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34">
+      <c r="K35">
         <v>0.4878048780487805</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>20</v>
-      </c>
-      <c r="M34">
-        <v>21</v>
-      </c>
-      <c r="N34">
-        <v>0.95</v>
-      </c>
-      <c r="O34">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.008357441337190614</v>
-      </c>
-      <c r="C35">
-        <v>26</v>
-      </c>
-      <c r="D35">
-        <v>116</v>
-      </c>
-      <c r="E35">
-        <v>0.78</v>
-      </c>
-      <c r="F35">
-        <v>0.22</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>3085</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L35">
-        <v>21</v>
       </c>
       <c r="M35">
         <v>21</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L37">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L38">
+        <v>34</v>
+      </c>
+      <c r="M38">
+        <v>34</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K36">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="L36">
-        <v>23</v>
-      </c>
-      <c r="M36">
-        <v>23</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.3698630136986301</v>
-      </c>
-      <c r="L37">
-        <v>27</v>
-      </c>
-      <c r="M37">
-        <v>27</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L38">
-        <v>27</v>
-      </c>
-      <c r="M38">
-        <v>27</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="K39">
-        <v>0.34375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2447,238 +2390,472 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K40">
-        <v>0.1532258064516129</v>
-      </c>
-      <c r="L40">
+      <c r="K43">
+        <v>0.359375</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>22</v>
+      </c>
+      <c r="N44">
+        <v>0.95</v>
+      </c>
+      <c r="O44">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45">
+        <v>0.1693548387096774</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46">
+        <v>0.1405405405405405</v>
+      </c>
+      <c r="L46">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47">
+        <v>0.1104651162790698</v>
+      </c>
+      <c r="L47">
         <v>19</v>
       </c>
-      <c r="M40">
+      <c r="M47">
         <v>19</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41">
-        <v>0.1032608695652174</v>
-      </c>
-      <c r="L41">
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48">
+        <v>0.1006493506493507</v>
+      </c>
+      <c r="L48">
+        <v>31</v>
+      </c>
+      <c r="M48">
+        <v>31</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49">
+        <v>0.06987951807228916</v>
+      </c>
+      <c r="L49">
+        <v>29</v>
+      </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K50">
+        <v>0.06597222222222222</v>
+      </c>
+      <c r="L50">
         <v>19</v>
       </c>
-      <c r="M41">
+      <c r="M50">
         <v>20</v>
       </c>
-      <c r="N41">
+      <c r="N50">
         <v>0.95</v>
       </c>
-      <c r="O41">
+      <c r="O50">
         <v>0.05000000000000004</v>
       </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42">
-        <v>0.07451923076923077</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
-      <c r="M42">
-        <v>31</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43">
-        <v>0.06574394463667819</v>
-      </c>
-      <c r="L43">
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K51">
+        <v>0.06017191977077364</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>21</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52">
+        <v>0.03084671073339628</v>
+      </c>
+      <c r="L52">
+        <v>98</v>
+      </c>
+      <c r="M52">
+        <v>122</v>
+      </c>
+      <c r="N52">
+        <v>0.8</v>
+      </c>
+      <c r="O52">
+        <v>0.2</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K53">
+        <v>0.02696629213483146</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>28</v>
+      </c>
+      <c r="N53">
+        <v>0.86</v>
+      </c>
+      <c r="O53">
+        <v>0.14</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K54">
+        <v>0.0244173140954495</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>22</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K55">
+        <v>0.02085505735140772</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>29</v>
+      </c>
+      <c r="N55">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O55">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56">
+        <v>0.009060562708631379</v>
+      </c>
+      <c r="L56">
         <v>19</v>
       </c>
-      <c r="M43">
-        <v>19</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K44">
-        <v>0.03888024883359253</v>
-      </c>
-      <c r="L44">
-        <v>25</v>
-      </c>
-      <c r="M44">
-        <v>32</v>
-      </c>
-      <c r="N44">
-        <v>0.78</v>
-      </c>
-      <c r="O44">
-        <v>0.22</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45">
-        <v>0.02834645669291339</v>
-      </c>
-      <c r="L45">
-        <v>90</v>
-      </c>
-      <c r="M45">
-        <v>116</v>
-      </c>
-      <c r="N45">
-        <v>0.78</v>
-      </c>
-      <c r="O45">
-        <v>0.22</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K46">
-        <v>0.0267260579064588</v>
-      </c>
-      <c r="L46">
-        <v>24</v>
-      </c>
-      <c r="M46">
-        <v>27</v>
-      </c>
-      <c r="N46">
-        <v>0.89</v>
-      </c>
-      <c r="O46">
-        <v>0.11</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K47">
-        <v>0.02249718785151856</v>
-      </c>
-      <c r="L47">
+      <c r="M56">
+        <v>65</v>
+      </c>
+      <c r="N56">
+        <v>0.29</v>
+      </c>
+      <c r="O56">
+        <v>0.71</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K57">
+        <v>0.006668889629876626</v>
+      </c>
+      <c r="L57">
         <v>20</v>
       </c>
-      <c r="M47">
-        <v>25</v>
-      </c>
-      <c r="N47">
-        <v>0.8</v>
-      </c>
-      <c r="O47">
-        <v>0.2</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48">
-        <v>0.008994003997335111</v>
-      </c>
-      <c r="L48">
-        <v>27</v>
-      </c>
-      <c r="M48">
-        <v>132</v>
-      </c>
-      <c r="N48">
-        <v>0.2</v>
-      </c>
-      <c r="O48">
-        <v>0.8</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>2975</v>
+      <c r="M57">
+        <v>128</v>
+      </c>
+      <c r="N57">
+        <v>0.16</v>
+      </c>
+      <c r="O57">
+        <v>0.84</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2979</v>
       </c>
     </row>
   </sheetData>
